--- a/server/data/fr/coefficients 2020_03.04.2020.xlsx
+++ b/server/data/fr/coefficients 2020_03.04.2020.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\SCOM\STATISTIQUES\02. Impôts\Coefficients impôts\2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loic/Documents/GitHub/tax-switzerland/server/data/fr/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DF7A51-C051-8D4C-B3C4-2577ADEDC154}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="15480" windowHeight="11460"/>
+    <workbookView xWindow="9140" yWindow="-19980" windowWidth="25700" windowHeight="18780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coeff 2020 prov" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Print_Titles" localSheetId="0">'coeff 2020 prov'!$1:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'coeff 2020 prov'!$1:$9</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="297">
   <si>
     <t>—</t>
   </si>
@@ -66,9 +68,6 @@
     <t>Liegenschaftssteuer, in ‰ des Steuerwerts</t>
   </si>
   <si>
-    <t>Broye / Broye</t>
-  </si>
-  <si>
     <t>Châtillon</t>
   </si>
   <si>
@@ -898,12 +897,30 @@
   </si>
   <si>
     <t>Impôts / Steuern 2020</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>incomeTax</t>
+  </si>
+  <si>
+    <t>directDescendingTax</t>
+  </si>
+  <si>
+    <t>companyTax</t>
+  </si>
+  <si>
+    <t>transferSaleTax</t>
+  </si>
+  <si>
+    <t>realEstateTax</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -1154,23 +1171,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1181,10 +1186,22 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1205,7 +1222,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1280,6 +1297,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1315,6 +1349,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1490,66 +1541,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I170"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.7109375" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="38" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="15" customWidth="1"/>
-    <col min="3" max="4" width="21.7109375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="1.7109375" style="23" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="1.7109375" style="23" customWidth="1"/>
-    <col min="8" max="9" width="21.7109375" style="15" customWidth="1"/>
-    <col min="10" max="12" width="14.7109375" style="15" customWidth="1"/>
-    <col min="13" max="16384" width="15.7109375" style="15"/>
+    <col min="1" max="1" width="5.6640625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="15" customWidth="1"/>
+    <col min="3" max="4" width="21.6640625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="1.6640625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="1.6640625" style="23" customWidth="1"/>
+    <col min="8" max="9" width="21.6640625" style="15" customWidth="1"/>
+    <col min="10" max="12" width="14.6640625" style="15" customWidth="1"/>
+    <col min="13" max="16384" width="15.6640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="11" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="39" t="s">
-        <v>291</v>
-      </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-    </row>
-    <row r="2" spans="1:9" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+    </row>
+    <row r="2" spans="1:9" s="11" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="31"/>
       <c r="B2" s="12"/>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-    </row>
-    <row r="3" spans="1:9" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+    </row>
+    <row r="3" spans="1:9" s="14" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="32"/>
       <c r="B3" s="13"/>
-      <c r="C3" s="41" t="s">
-        <v>283</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1560,9 +1611,9 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
-      <c r="B5" s="43"/>
+    <row r="5" spans="1:9" s="16" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="39"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="44" t="s">
         <v>1</v>
       </c>
@@ -1573,13 +1624,13 @@
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:9" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="46"/>
-      <c r="B6" s="47"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="26" t="s">
         <v>3</v>
       </c>
@@ -1598,26 +1649,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="17" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="42"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="45" t="s">
+    <row r="7" spans="1:9" s="17" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="39"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="45"/>
+      <c r="D7" s="41"/>
       <c r="E7" s="19"/>
       <c r="F7" s="18" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="19"/>
-      <c r="H7" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="I7" s="45"/>
+      <c r="H7" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="I7" s="41"/>
     </row>
     <row r="8" spans="1:9" s="29" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="46"/>
-      <c r="B8" s="47"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="26" t="s">
         <v>10</v>
       </c>
@@ -1630,13 +1681,13 @@
       </c>
       <c r="G8" s="27"/>
       <c r="H8" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I8" s="28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="33"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
@@ -1647,11 +1698,9 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="34"/>
-      <c r="B10" s="25" t="s">
-        <v>14</v>
-      </c>
+      <c r="B10" s="25"/>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -1660,12 +1709,12 @@
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
     </row>
-    <row r="11" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="8">
         <v>65</v>
@@ -1685,12 +1734,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="8">
         <v>90</v>
@@ -1710,12 +1759,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="8">
         <v>85</v>
@@ -1735,12 +1784,12 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="8">
         <v>88</v>
@@ -1760,12 +1809,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="8">
         <v>58.9</v>
@@ -1785,12 +1834,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="8">
         <v>80</v>
@@ -1810,12 +1859,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="8">
         <v>83</v>
@@ -1835,12 +1884,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="8">
         <v>83.6</v>
@@ -1860,12 +1909,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="8">
         <v>87.9</v>
@@ -1885,12 +1934,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="8">
         <v>90.3</v>
@@ -1910,12 +1959,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="8">
         <v>80</v>
@@ -1935,12 +1984,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="8">
         <v>30</v>
@@ -1960,12 +2009,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="8">
         <v>88.7</v>
@@ -1985,12 +2034,12 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="8">
         <v>78</v>
@@ -2010,12 +2059,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="8">
         <v>77.400000000000006</v>
@@ -2035,12 +2084,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="8">
         <v>49.9</v>
@@ -2060,12 +2109,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C27" s="8">
         <v>72</v>
@@ -2085,12 +2134,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C28" s="8">
         <v>84</v>
@@ -2110,12 +2159,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C29" s="8">
         <v>70</v>
@@ -2135,7 +2184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="36"/>
       <c r="B30" s="7"/>
       <c r="C30" s="8"/>
@@ -2146,10 +2195,10 @@
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
     </row>
-    <row r="31" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="34"/>
       <c r="B31" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -2159,12 +2208,12 @@
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
     </row>
-    <row r="32" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="8">
         <v>92</v>
@@ -2184,12 +2233,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="8">
         <v>95</v>
@@ -2209,12 +2258,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="8">
         <v>85</v>
@@ -2234,12 +2283,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="8">
         <v>97</v>
@@ -2259,12 +2308,12 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" s="8">
         <v>85</v>
@@ -2284,12 +2333,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="8">
         <v>88</v>
@@ -2309,12 +2358,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="35" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" s="8">
         <v>77</v>
@@ -2334,12 +2383,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39" s="8">
         <v>91.2</v>
@@ -2359,12 +2408,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40" s="8">
         <v>93</v>
@@ -2384,12 +2433,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" s="8">
         <v>80</v>
@@ -2409,12 +2458,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C42" s="8">
         <v>90</v>
@@ -2434,12 +2483,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C43" s="8">
         <v>79</v>
@@ -2459,12 +2508,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C44" s="8">
         <v>88</v>
@@ -2484,12 +2533,12 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C45" s="8">
         <v>77</v>
@@ -2509,12 +2558,12 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C46" s="8">
         <v>88.4</v>
@@ -2534,12 +2583,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C47" s="8">
         <v>76</v>
@@ -2559,12 +2608,12 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C48" s="8">
         <v>82</v>
@@ -2584,12 +2633,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="C49" s="8">
         <v>87</v>
@@ -2609,7 +2658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="36"/>
       <c r="B50" s="7"/>
       <c r="C50" s="8"/>
@@ -2620,10 +2669,10 @@
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
     </row>
-    <row r="51" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="34"/>
       <c r="B51" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -2633,12 +2682,12 @@
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
     </row>
-    <row r="52" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C52" s="8">
         <v>97</v>
@@ -2658,12 +2707,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C53" s="8">
         <v>75</v>
@@ -2683,12 +2732,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C54" s="8">
         <v>85</v>
@@ -2708,12 +2757,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C55" s="8">
         <v>89</v>
@@ -2733,12 +2782,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C56" s="8">
         <v>74.3</v>
@@ -2758,12 +2807,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C57" s="8">
         <v>79.5</v>
@@ -2783,12 +2832,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C58" s="8">
         <v>73.5</v>
@@ -2808,12 +2857,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C59" s="8">
         <v>67</v>
@@ -2833,12 +2882,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C60" s="8">
         <v>70</v>
@@ -2858,12 +2907,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="8">
         <v>80</v>
@@ -2883,12 +2932,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C62" s="8">
         <v>80</v>
@@ -2908,12 +2957,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C63" s="8">
         <v>77.7</v>
@@ -2933,12 +2982,12 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C64" s="8">
         <v>100</v>
@@ -2958,12 +3007,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C65" s="8">
         <v>75</v>
@@ -2983,12 +3032,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C66" s="8">
         <v>84.3</v>
@@ -3008,12 +3057,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C67" s="8">
         <v>83.5</v>
@@ -3033,12 +3082,12 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C68" s="8">
         <v>75</v>
@@ -3058,12 +3107,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C69" s="8">
         <v>73</v>
@@ -3083,12 +3132,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C70" s="8">
         <v>85</v>
@@ -3108,12 +3157,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="35" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C71" s="8">
         <v>80</v>
@@ -3133,12 +3182,12 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C72" s="8">
         <v>73</v>
@@ -3158,12 +3207,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C73" s="8">
         <v>79</v>
@@ -3183,12 +3232,12 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C74" s="8">
         <v>87.8</v>
@@ -3208,12 +3257,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C75" s="8">
         <v>83.2</v>
@@ -3233,12 +3282,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C76" s="8">
         <v>89.8</v>
@@ -3258,7 +3307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="36"/>
       <c r="B77" s="7"/>
       <c r="C77" s="8"/>
@@ -3269,10 +3318,10 @@
       <c r="H77" s="9"/>
       <c r="I77" s="9"/>
     </row>
-    <row r="78" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="34"/>
       <c r="B78" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
@@ -3282,12 +3331,12 @@
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
     </row>
-    <row r="79" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C79" s="8">
         <v>85</v>
@@ -3307,12 +3356,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C80" s="8">
         <v>90</v>
@@ -3332,12 +3381,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C81" s="8">
         <v>72.099999999999994</v>
@@ -3357,12 +3406,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C82" s="8">
         <v>81</v>
@@ -3382,12 +3431,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C83" s="8">
         <v>81.7</v>
@@ -3407,12 +3456,12 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C84" s="8">
         <v>75</v>
@@ -3432,12 +3481,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C85" s="8">
         <v>85</v>
@@ -3457,12 +3506,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C86" s="8">
         <v>88</v>
@@ -3482,12 +3531,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="87" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C87" s="8">
         <v>50</v>
@@ -3507,12 +3556,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C88" s="8">
         <v>80</v>
@@ -3532,12 +3581,12 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="35" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C89" s="8">
         <v>70</v>
@@ -3557,12 +3606,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="35" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C90" s="8">
         <v>67.8</v>
@@ -3582,12 +3631,12 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C91" s="8">
         <v>82</v>
@@ -3607,12 +3656,12 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="92" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="35" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C92" s="8">
         <v>80</v>
@@ -3632,12 +3681,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="35" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C93" s="8">
         <v>60</v>
@@ -3657,12 +3706,12 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C94" s="8">
         <v>81</v>
@@ -3682,12 +3731,12 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="95" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="35" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C95" s="8">
         <v>78</v>
@@ -3707,12 +3756,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="96" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="8">
         <v>89</v>
@@ -3732,12 +3781,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="35" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C97" s="8">
         <v>80</v>
@@ -3757,12 +3806,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="35" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C98" s="8">
         <v>93</v>
@@ -3782,12 +3831,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="35" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C99" s="8">
         <v>88</v>
@@ -3807,12 +3856,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="35" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C100" s="8">
         <v>63.9</v>
@@ -3832,12 +3881,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C101" s="8">
         <v>90</v>
@@ -3857,12 +3906,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C102" s="8">
         <v>72</v>
@@ -3882,12 +3931,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C103" s="8">
         <v>89</v>
@@ -3907,12 +3956,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C104" s="8">
         <v>79</v>
@@ -3932,12 +3981,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C105" s="8">
         <v>85</v>
@@ -3957,12 +4006,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="B106" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="C106" s="8">
         <v>80</v>
@@ -3982,7 +4031,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="36"/>
       <c r="B107" s="7"/>
       <c r="C107" s="8"/>
@@ -3993,10 +4042,10 @@
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
     </row>
-    <row r="108" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="34"/>
       <c r="B108" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
@@ -4006,12 +4055,12 @@
       <c r="H108" s="9"/>
       <c r="I108" s="9"/>
     </row>
-    <row r="109" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C109" s="8">
         <v>76</v>
@@ -4031,12 +4080,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C110" s="8">
         <v>85</v>
@@ -4056,12 +4105,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="35" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C111" s="8">
         <v>76</v>
@@ -4081,12 +4130,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="35" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C112" s="8">
         <v>75</v>
@@ -4106,12 +4155,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C113" s="8">
         <v>72</v>
@@ -4131,12 +4180,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="35" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C114" s="8">
         <v>67</v>
@@ -4156,12 +4205,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C115" s="8">
         <v>32</v>
@@ -4181,12 +4230,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="35" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C116" s="8">
         <v>80</v>
@@ -4206,12 +4255,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="35" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C117" s="8">
         <v>84</v>
@@ -4231,12 +4280,12 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="35" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C118" s="8">
         <v>60</v>
@@ -4256,12 +4305,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C119" s="8">
         <v>52.3</v>
@@ -4281,12 +4330,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="35" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C120" s="8">
         <v>88</v>
@@ -4306,12 +4355,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="35" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C121" s="8">
         <v>58</v>
@@ -4331,12 +4380,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="35" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C122" s="8">
         <v>62</v>
@@ -4356,12 +4405,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="123" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="35" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C123" s="8">
         <v>72.5</v>
@@ -4381,12 +4430,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="35" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C124" s="8">
         <v>79.5</v>
@@ -4406,12 +4455,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="35" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C125" s="8">
         <v>60</v>
@@ -4431,7 +4480,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="126" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="36"/>
       <c r="B126" s="7"/>
       <c r="C126" s="8"/>
@@ -4442,10 +4491,10 @@
       <c r="H126" s="9"/>
       <c r="I126" s="9"/>
     </row>
-    <row r="127" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="34"/>
       <c r="B127" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C127" s="8"/>
       <c r="D127" s="8"/>
@@ -4455,12 +4504,12 @@
       <c r="H127" s="9"/>
       <c r="I127" s="9"/>
     </row>
-    <row r="128" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="35" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C128" s="8">
         <v>79</v>
@@ -4480,12 +4529,12 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="35" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C129" s="8">
         <v>92</v>
@@ -4505,12 +4554,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="130" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="35" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C130" s="8">
         <v>82</v>
@@ -4530,12 +4579,12 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C131" s="8">
         <v>85.9</v>
@@ -4555,12 +4604,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="132" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="35" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C132" s="8">
         <v>76</v>
@@ -4580,12 +4629,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="35" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C133" s="8">
         <v>81</v>
@@ -4605,12 +4654,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="35" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C134" s="8">
         <v>95</v>
@@ -4630,12 +4679,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C135" s="8">
         <v>95</v>
@@ -4655,12 +4704,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C136" s="8">
         <v>90</v>
@@ -4680,12 +4729,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="137" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C137" s="8">
         <v>87</v>
@@ -4705,12 +4754,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C138" s="8">
         <v>95</v>
@@ -4730,12 +4779,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="139" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="35" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C139" s="8">
         <v>80.599999999999994</v>
@@ -4755,12 +4804,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="35" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C140" s="8">
         <v>77</v>
@@ -4780,12 +4829,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="35" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C141" s="8">
         <v>75</v>
@@ -4805,12 +4854,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="142" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="35" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C142" s="8">
         <v>76.099999999999994</v>
@@ -4830,12 +4879,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="35" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C143" s="8">
         <v>89</v>
@@ -4855,12 +4904,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="35" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C144" s="8">
         <v>82</v>
@@ -4880,7 +4929,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="145" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="36"/>
       <c r="B145" s="7"/>
       <c r="C145" s="8"/>
@@ -4891,10 +4940,10 @@
       <c r="H145" s="9"/>
       <c r="I145" s="9"/>
     </row>
-    <row r="146" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="34"/>
       <c r="B146" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C146" s="8"/>
       <c r="D146" s="8"/>
@@ -4904,12 +4953,12 @@
       <c r="H146" s="9"/>
       <c r="I146" s="9"/>
     </row>
-    <row r="147" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="35" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C147" s="8">
         <v>78.5</v>
@@ -4929,12 +4978,12 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="148" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="35" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C148" s="8">
         <v>93</v>
@@ -4954,12 +5003,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="149" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C149" s="8">
         <v>83.6</v>
@@ -4979,12 +5028,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="35" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C150" s="8">
         <v>89</v>
@@ -5004,12 +5053,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="35" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C151" s="8">
         <v>88</v>
@@ -5029,12 +5078,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="35" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C152" s="8">
         <v>87</v>
@@ -5054,12 +5103,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="153" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C153" s="8">
         <v>83</v>
@@ -5079,12 +5128,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C154" s="8">
         <v>93.8</v>
@@ -5104,12 +5153,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="35" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C155" s="8">
         <v>86</v>
@@ -5129,7 +5178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="37"/>
       <c r="C156" s="8"/>
       <c r="D156" s="8"/>
@@ -5139,7 +5188,7 @@
       <c r="H156" s="9"/>
       <c r="I156" s="9"/>
     </row>
-    <row r="157" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="37"/>
       <c r="C157" s="8"/>
       <c r="D157" s="8"/>
@@ -5149,7 +5198,7 @@
       <c r="H157" s="9"/>
       <c r="I157" s="9"/>
     </row>
-    <row r="158" spans="1:9" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="37"/>
       <c r="C158" s="21"/>
       <c r="D158" s="21"/>
@@ -5159,7 +5208,7 @@
       <c r="H158" s="24"/>
       <c r="I158" s="24"/>
     </row>
-    <row r="159" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C159" s="8"/>
       <c r="D159" s="8"/>
       <c r="E159" s="8"/>
@@ -5168,7 +5217,7 @@
       <c r="H159" s="9"/>
       <c r="I159" s="9"/>
     </row>
-    <row r="160" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C160" s="8"/>
       <c r="D160" s="8"/>
       <c r="E160" s="8"/>
@@ -5177,7 +5226,7 @@
       <c r="H160" s="9"/>
       <c r="I160" s="9"/>
     </row>
-    <row r="161" spans="3:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
       <c r="E161" s="8"/>
@@ -5186,7 +5235,7 @@
       <c r="H161" s="9"/>
       <c r="I161" s="9"/>
     </row>
-    <row r="162" spans="3:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C162" s="8"/>
       <c r="D162" s="8"/>
       <c r="E162" s="8"/>
@@ -5195,7 +5244,7 @@
       <c r="H162" s="9"/>
       <c r="I162" s="9"/>
     </row>
-    <row r="163" spans="3:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C163" s="8"/>
       <c r="D163" s="8"/>
       <c r="E163" s="8"/>
@@ -5204,7 +5253,7 @@
       <c r="H163" s="9"/>
       <c r="I163" s="9"/>
     </row>
-    <row r="164" spans="3:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C164" s="8"/>
       <c r="D164" s="8"/>
       <c r="E164" s="8"/>
@@ -5213,7 +5262,7 @@
       <c r="H164" s="9"/>
       <c r="I164" s="9"/>
     </row>
-    <row r="165" spans="3:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C165" s="8"/>
       <c r="D165" s="8"/>
       <c r="E165" s="8"/>
@@ -5222,7 +5271,7 @@
       <c r="H165" s="9"/>
       <c r="I165" s="9"/>
     </row>
-    <row r="166" spans="3:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C166" s="8"/>
       <c r="D166" s="8"/>
       <c r="E166" s="8"/>
@@ -5231,7 +5280,7 @@
       <c r="H166" s="9"/>
       <c r="I166" s="9"/>
     </row>
-    <row r="167" spans="3:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C167" s="8"/>
       <c r="D167" s="8"/>
       <c r="E167" s="8"/>
@@ -5240,7 +5289,7 @@
       <c r="H167" s="9"/>
       <c r="I167" s="9"/>
     </row>
-    <row r="168" spans="3:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:9" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C168" s="22"/>
       <c r="D168" s="22"/>
       <c r="E168" s="22"/>
@@ -5249,7 +5298,7 @@
       <c r="H168" s="22"/>
       <c r="I168" s="22"/>
     </row>
-    <row r="169" spans="3:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:9" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C169" s="22"/>
       <c r="D169" s="22"/>
       <c r="E169" s="22"/>
@@ -5258,7 +5307,7 @@
       <c r="H169" s="22"/>
       <c r="I169" s="22"/>
     </row>
-    <row r="170" spans="3:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="3:9" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C170" s="22"/>
       <c r="D170" s="22"/>
       <c r="E170" s="22"/>
@@ -5269,17 +5318,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.35433070866141736"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -5303,4 +5352,3379 @@
   </rowBreaks>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49C420F-16FD-1D4C-84B7-F54A21713E56}">
+  <dimension ref="A1:H169"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="90" workbookViewId="0">
+      <selection activeCell="C144" sqref="C144"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.6640625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="15" customWidth="1"/>
+    <col min="3" max="5" width="21.6640625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="1.6640625" style="23" customWidth="1"/>
+    <col min="7" max="8" width="21.6640625" style="15" customWidth="1"/>
+    <col min="9" max="11" width="14.6640625" style="15" customWidth="1"/>
+    <col min="12" max="16384" width="15.6640625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="34"/>
+      <c r="B1" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="8">
+        <v>65</v>
+      </c>
+      <c r="D2" s="8">
+        <v>60</v>
+      </c>
+      <c r="E2" s="8">
+        <v>87</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9">
+        <v>1</v>
+      </c>
+      <c r="H2" s="9">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="8">
+        <v>90</v>
+      </c>
+      <c r="D3" s="8">
+        <v>70</v>
+      </c>
+      <c r="E3" s="8">
+        <v>80</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="8">
+        <v>85</v>
+      </c>
+      <c r="D4" s="8">
+        <v>66.7</v>
+      </c>
+      <c r="E4" s="8">
+        <v>85</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="8">
+        <v>88</v>
+      </c>
+      <c r="D5" s="8">
+        <v>70</v>
+      </c>
+      <c r="E5" s="8">
+        <v>85.6</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="8">
+        <v>58.9</v>
+      </c>
+      <c r="D6" s="8">
+        <v>70</v>
+      </c>
+      <c r="E6" s="8">
+        <v>58.9</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="8">
+        <v>80</v>
+      </c>
+      <c r="D7" s="8">
+        <v>70</v>
+      </c>
+      <c r="E7" s="8">
+        <v>80</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="8">
+        <v>83</v>
+      </c>
+      <c r="D8" s="8">
+        <v>70</v>
+      </c>
+      <c r="E8" s="8">
+        <v>83</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="8">
+        <v>83.6</v>
+      </c>
+      <c r="D9" s="8">
+        <v>66.7</v>
+      </c>
+      <c r="E9" s="8">
+        <v>79.2</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="8">
+        <v>87.9</v>
+      </c>
+      <c r="D10" s="8">
+        <v>70</v>
+      </c>
+      <c r="E10" s="8">
+        <v>87.9</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="8">
+        <v>90.3</v>
+      </c>
+      <c r="D11" s="8">
+        <v>70</v>
+      </c>
+      <c r="E11" s="8">
+        <v>90.3</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9">
+        <v>1</v>
+      </c>
+      <c r="H11" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="8">
+        <v>80</v>
+      </c>
+      <c r="D12" s="8">
+        <v>70</v>
+      </c>
+      <c r="E12" s="8">
+        <v>80</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="8">
+        <v>30</v>
+      </c>
+      <c r="D13" s="8">
+        <v>70</v>
+      </c>
+      <c r="E13" s="8">
+        <v>30</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9">
+        <v>1</v>
+      </c>
+      <c r="H13" s="9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="8">
+        <v>88.7</v>
+      </c>
+      <c r="D14" s="8">
+        <v>60</v>
+      </c>
+      <c r="E14" s="8">
+        <v>88.7</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="8">
+        <v>78</v>
+      </c>
+      <c r="D15" s="8">
+        <v>70</v>
+      </c>
+      <c r="E15" s="8">
+        <v>78</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9">
+        <v>1</v>
+      </c>
+      <c r="H15" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="8">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="D16" s="8">
+        <v>70</v>
+      </c>
+      <c r="E16" s="8">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="8">
+        <v>49.9</v>
+      </c>
+      <c r="D17" s="8">
+        <v>60</v>
+      </c>
+      <c r="E17" s="8">
+        <v>49.9</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9">
+        <v>1</v>
+      </c>
+      <c r="H17" s="9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="8">
+        <v>72</v>
+      </c>
+      <c r="D18" s="8">
+        <v>70</v>
+      </c>
+      <c r="E18" s="8">
+        <v>72</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9">
+        <v>1</v>
+      </c>
+      <c r="H18" s="9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="8">
+        <v>84</v>
+      </c>
+      <c r="D19" s="8">
+        <v>70</v>
+      </c>
+      <c r="E19" s="8">
+        <v>84</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="9">
+        <v>1</v>
+      </c>
+      <c r="H19" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="8">
+        <v>70</v>
+      </c>
+      <c r="D20" s="8">
+        <v>66.7</v>
+      </c>
+      <c r="E20" s="8">
+        <v>70</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9">
+        <v>1</v>
+      </c>
+      <c r="H20" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="8">
+        <v>92</v>
+      </c>
+      <c r="D21" s="8">
+        <v>70</v>
+      </c>
+      <c r="E21" s="8">
+        <v>50</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="9">
+        <v>1</v>
+      </c>
+      <c r="H21" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="8">
+        <v>95</v>
+      </c>
+      <c r="D22" s="8">
+        <v>70</v>
+      </c>
+      <c r="E22" s="8">
+        <v>100</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9">
+        <v>1</v>
+      </c>
+      <c r="H22" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="8">
+        <v>85</v>
+      </c>
+      <c r="D23" s="8">
+        <v>70</v>
+      </c>
+      <c r="E23" s="8">
+        <v>85</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9">
+        <v>1</v>
+      </c>
+      <c r="H23" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="8">
+        <v>97</v>
+      </c>
+      <c r="D24" s="8">
+        <v>70</v>
+      </c>
+      <c r="E24" s="8">
+        <v>55</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="9">
+        <v>1</v>
+      </c>
+      <c r="H24" s="9">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="8">
+        <v>85</v>
+      </c>
+      <c r="D25" s="8">
+        <v>66.7</v>
+      </c>
+      <c r="E25" s="8">
+        <v>85</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="9">
+        <v>1</v>
+      </c>
+      <c r="H25" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="8">
+        <v>88</v>
+      </c>
+      <c r="D26" s="8">
+        <v>70</v>
+      </c>
+      <c r="E26" s="8">
+        <v>88</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="9">
+        <v>1</v>
+      </c>
+      <c r="H26" s="9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="8">
+        <v>77</v>
+      </c>
+      <c r="D27" s="8">
+        <v>70</v>
+      </c>
+      <c r="E27" s="8">
+        <v>77</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="9">
+        <v>1</v>
+      </c>
+      <c r="H27" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="8">
+        <v>91.2</v>
+      </c>
+      <c r="D28" s="8">
+        <v>70</v>
+      </c>
+      <c r="E28" s="8">
+        <v>86.9</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="9">
+        <v>1</v>
+      </c>
+      <c r="H28" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="8">
+        <v>93</v>
+      </c>
+      <c r="D29" s="8">
+        <v>70</v>
+      </c>
+      <c r="E29" s="8">
+        <v>83</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="9">
+        <v>1</v>
+      </c>
+      <c r="H29" s="9">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="8">
+        <v>80</v>
+      </c>
+      <c r="D30" s="8">
+        <v>66.7</v>
+      </c>
+      <c r="E30" s="8">
+        <v>80</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="9">
+        <v>1</v>
+      </c>
+      <c r="H30" s="9">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="8">
+        <v>90</v>
+      </c>
+      <c r="D31" s="8">
+        <v>70</v>
+      </c>
+      <c r="E31" s="8">
+        <v>90</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="9">
+        <v>1</v>
+      </c>
+      <c r="H31" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="8">
+        <v>79</v>
+      </c>
+      <c r="D32" s="8">
+        <v>66.7</v>
+      </c>
+      <c r="E32" s="8">
+        <v>48</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="9">
+        <v>1</v>
+      </c>
+      <c r="H32" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="8">
+        <v>88</v>
+      </c>
+      <c r="D33" s="8">
+        <v>70</v>
+      </c>
+      <c r="E33" s="8">
+        <v>88</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="9">
+        <v>1</v>
+      </c>
+      <c r="H33" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="8">
+        <v>77</v>
+      </c>
+      <c r="D34" s="8">
+        <v>70</v>
+      </c>
+      <c r="E34" s="8">
+        <v>77</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="9">
+        <v>1</v>
+      </c>
+      <c r="H34" s="9">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="8">
+        <v>88.4</v>
+      </c>
+      <c r="D35" s="8">
+        <v>70</v>
+      </c>
+      <c r="E35" s="8">
+        <v>88.4</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="9">
+        <v>1</v>
+      </c>
+      <c r="H35" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="8">
+        <v>76</v>
+      </c>
+      <c r="D36" s="8">
+        <v>70</v>
+      </c>
+      <c r="E36" s="8">
+        <v>76</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="9">
+        <v>1</v>
+      </c>
+      <c r="H36" s="9">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="8">
+        <v>82</v>
+      </c>
+      <c r="D37" s="8">
+        <v>70</v>
+      </c>
+      <c r="E37" s="8">
+        <v>82</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="9">
+        <v>1</v>
+      </c>
+      <c r="H37" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C38" s="8">
+        <v>87</v>
+      </c>
+      <c r="D38" s="8">
+        <v>70</v>
+      </c>
+      <c r="E38" s="8">
+        <v>87</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="9">
+        <v>1</v>
+      </c>
+      <c r="H38" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="8">
+        <v>97</v>
+      </c>
+      <c r="D39" s="8">
+        <v>70</v>
+      </c>
+      <c r="E39" s="8">
+        <v>97</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="9">
+        <v>1</v>
+      </c>
+      <c r="H39" s="9">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="8">
+        <v>75</v>
+      </c>
+      <c r="D40" s="8">
+        <v>70</v>
+      </c>
+      <c r="E40" s="8">
+        <v>75</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="9">
+        <v>1</v>
+      </c>
+      <c r="H40" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="8">
+        <v>85</v>
+      </c>
+      <c r="D41" s="8">
+        <v>70</v>
+      </c>
+      <c r="E41" s="8">
+        <v>85</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="9">
+        <v>1</v>
+      </c>
+      <c r="H41" s="9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="8">
+        <v>89</v>
+      </c>
+      <c r="D42" s="8">
+        <v>70</v>
+      </c>
+      <c r="E42" s="8">
+        <v>89</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="9">
+        <v>1</v>
+      </c>
+      <c r="H42" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="8">
+        <v>74.3</v>
+      </c>
+      <c r="D43" s="8">
+        <v>70</v>
+      </c>
+      <c r="E43" s="8">
+        <v>74.3</v>
+      </c>
+      <c r="F43" s="8"/>
+      <c r="G43" s="9">
+        <v>1</v>
+      </c>
+      <c r="H43" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="8">
+        <v>79.5</v>
+      </c>
+      <c r="D44" s="8">
+        <v>60</v>
+      </c>
+      <c r="E44" s="8">
+        <v>79.5</v>
+      </c>
+      <c r="F44" s="8"/>
+      <c r="G44" s="9">
+        <v>1</v>
+      </c>
+      <c r="H44" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="8">
+        <v>73.5</v>
+      </c>
+      <c r="D45" s="8">
+        <v>66.7</v>
+      </c>
+      <c r="E45" s="8">
+        <v>77.2</v>
+      </c>
+      <c r="F45" s="8"/>
+      <c r="G45" s="9">
+        <v>1</v>
+      </c>
+      <c r="H45" s="9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="8">
+        <v>67</v>
+      </c>
+      <c r="D46" s="8">
+        <v>50</v>
+      </c>
+      <c r="E46" s="8">
+        <v>67</v>
+      </c>
+      <c r="F46" s="8"/>
+      <c r="G46" s="9">
+        <v>1</v>
+      </c>
+      <c r="H46" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="8">
+        <v>70</v>
+      </c>
+      <c r="D47" s="8">
+        <v>70</v>
+      </c>
+      <c r="E47" s="8">
+        <v>70</v>
+      </c>
+      <c r="F47" s="8"/>
+      <c r="G47" s="9">
+        <v>1</v>
+      </c>
+      <c r="H47" s="9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="8">
+        <v>80</v>
+      </c>
+      <c r="D48" s="8">
+        <v>66.7</v>
+      </c>
+      <c r="E48" s="8">
+        <v>80</v>
+      </c>
+      <c r="F48" s="8"/>
+      <c r="G48" s="9">
+        <v>1</v>
+      </c>
+      <c r="H48" s="9">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="8">
+        <v>80</v>
+      </c>
+      <c r="D49" s="8">
+        <v>66.7</v>
+      </c>
+      <c r="E49" s="8">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="F49" s="8"/>
+      <c r="G49" s="9">
+        <v>1</v>
+      </c>
+      <c r="H49" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="8">
+        <v>77.7</v>
+      </c>
+      <c r="D50" s="8">
+        <v>70</v>
+      </c>
+      <c r="E50" s="8">
+        <v>77.7</v>
+      </c>
+      <c r="F50" s="8"/>
+      <c r="G50" s="9">
+        <v>1</v>
+      </c>
+      <c r="H50" s="9">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="8">
+        <v>100</v>
+      </c>
+      <c r="D51" s="8">
+        <v>70</v>
+      </c>
+      <c r="E51" s="8">
+        <v>100</v>
+      </c>
+      <c r="F51" s="8"/>
+      <c r="G51" s="9">
+        <v>1</v>
+      </c>
+      <c r="H51" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="8">
+        <v>75</v>
+      </c>
+      <c r="D52" s="8">
+        <v>70</v>
+      </c>
+      <c r="E52" s="8">
+        <v>75</v>
+      </c>
+      <c r="F52" s="8"/>
+      <c r="G52" s="9">
+        <v>1</v>
+      </c>
+      <c r="H52" s="9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="8">
+        <v>84.3</v>
+      </c>
+      <c r="D53" s="8">
+        <v>66.7</v>
+      </c>
+      <c r="E53" s="8">
+        <v>88.1</v>
+      </c>
+      <c r="F53" s="8"/>
+      <c r="G53" s="9">
+        <v>1</v>
+      </c>
+      <c r="H53" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="8">
+        <v>83.5</v>
+      </c>
+      <c r="D54" s="8">
+        <v>66.7</v>
+      </c>
+      <c r="E54" s="8">
+        <v>79.7</v>
+      </c>
+      <c r="F54" s="8"/>
+      <c r="G54" s="9">
+        <v>1</v>
+      </c>
+      <c r="H54" s="9">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" s="8">
+        <v>75</v>
+      </c>
+      <c r="D55" s="8">
+        <v>66.7</v>
+      </c>
+      <c r="E55" s="8">
+        <v>75</v>
+      </c>
+      <c r="F55" s="8"/>
+      <c r="G55" s="9">
+        <v>1</v>
+      </c>
+      <c r="H55" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="8">
+        <v>73</v>
+      </c>
+      <c r="D56" s="8">
+        <v>70</v>
+      </c>
+      <c r="E56" s="8">
+        <v>73</v>
+      </c>
+      <c r="F56" s="8"/>
+      <c r="G56" s="9">
+        <v>1</v>
+      </c>
+      <c r="H56" s="9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="8">
+        <v>85</v>
+      </c>
+      <c r="D57" s="8">
+        <v>70</v>
+      </c>
+      <c r="E57" s="8">
+        <v>100</v>
+      </c>
+      <c r="F57" s="8"/>
+      <c r="G57" s="9">
+        <v>1</v>
+      </c>
+      <c r="H57" s="9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="8">
+        <v>80</v>
+      </c>
+      <c r="D58" s="8">
+        <v>70</v>
+      </c>
+      <c r="E58" s="8">
+        <v>80</v>
+      </c>
+      <c r="F58" s="8"/>
+      <c r="G58" s="9">
+        <v>1</v>
+      </c>
+      <c r="H58" s="9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="8">
+        <v>73</v>
+      </c>
+      <c r="D59" s="8">
+        <v>66.7</v>
+      </c>
+      <c r="E59" s="8">
+        <v>78</v>
+      </c>
+      <c r="F59" s="8"/>
+      <c r="G59" s="9">
+        <v>1</v>
+      </c>
+      <c r="H59" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="8">
+        <v>79</v>
+      </c>
+      <c r="D60" s="8">
+        <v>70</v>
+      </c>
+      <c r="E60" s="8">
+        <v>79</v>
+      </c>
+      <c r="F60" s="8"/>
+      <c r="G60" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="H60" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" s="8">
+        <v>87.8</v>
+      </c>
+      <c r="D61" s="8">
+        <v>66.7</v>
+      </c>
+      <c r="E61" s="8">
+        <v>87.8</v>
+      </c>
+      <c r="F61" s="8"/>
+      <c r="G61" s="9">
+        <v>1</v>
+      </c>
+      <c r="H61" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="8">
+        <v>83.2</v>
+      </c>
+      <c r="D62" s="8">
+        <v>70</v>
+      </c>
+      <c r="E62" s="8">
+        <v>83.2</v>
+      </c>
+      <c r="F62" s="8"/>
+      <c r="G62" s="9">
+        <v>1</v>
+      </c>
+      <c r="H62" s="9">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="8">
+        <v>89.8</v>
+      </c>
+      <c r="D63" s="8">
+        <v>70</v>
+      </c>
+      <c r="E63" s="8">
+        <v>89.8</v>
+      </c>
+      <c r="F63" s="8"/>
+      <c r="G63" s="9">
+        <v>1</v>
+      </c>
+      <c r="H63" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="8">
+        <v>85</v>
+      </c>
+      <c r="D64" s="8">
+        <v>66.7</v>
+      </c>
+      <c r="E64" s="8">
+        <v>85</v>
+      </c>
+      <c r="F64" s="8"/>
+      <c r="G64" s="9">
+        <v>1</v>
+      </c>
+      <c r="H64" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" s="8">
+        <v>90</v>
+      </c>
+      <c r="D65" s="8">
+        <v>70</v>
+      </c>
+      <c r="E65" s="8">
+        <v>90</v>
+      </c>
+      <c r="F65" s="8"/>
+      <c r="G65" s="9">
+        <v>1</v>
+      </c>
+      <c r="H65" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" s="8">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="D66" s="8">
+        <v>50</v>
+      </c>
+      <c r="E66" s="8">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="F66" s="8"/>
+      <c r="G66" s="9">
+        <v>1</v>
+      </c>
+      <c r="H66" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" s="8">
+        <v>81</v>
+      </c>
+      <c r="D67" s="8">
+        <v>70</v>
+      </c>
+      <c r="E67" s="8">
+        <v>81</v>
+      </c>
+      <c r="F67" s="8"/>
+      <c r="G67" s="9">
+        <v>1</v>
+      </c>
+      <c r="H67" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" s="8">
+        <v>81.7</v>
+      </c>
+      <c r="D68" s="8">
+        <v>50</v>
+      </c>
+      <c r="E68" s="8">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="F68" s="8"/>
+      <c r="G68" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="H68" s="9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" s="8">
+        <v>75</v>
+      </c>
+      <c r="D69" s="8">
+        <v>66.7</v>
+      </c>
+      <c r="E69" s="8">
+        <v>75</v>
+      </c>
+      <c r="F69" s="8"/>
+      <c r="G69" s="9">
+        <v>1</v>
+      </c>
+      <c r="H69" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C70" s="8">
+        <v>85</v>
+      </c>
+      <c r="D70" s="8">
+        <v>70</v>
+      </c>
+      <c r="E70" s="8">
+        <v>93</v>
+      </c>
+      <c r="F70" s="8"/>
+      <c r="G70" s="9">
+        <v>1</v>
+      </c>
+      <c r="H70" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" s="8">
+        <v>88</v>
+      </c>
+      <c r="D71" s="8">
+        <v>66.7</v>
+      </c>
+      <c r="E71" s="8">
+        <v>88</v>
+      </c>
+      <c r="F71" s="8"/>
+      <c r="G71" s="9">
+        <v>1</v>
+      </c>
+      <c r="H71" s="9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72" s="8">
+        <v>50</v>
+      </c>
+      <c r="D72" s="8">
+        <v>65</v>
+      </c>
+      <c r="E72" s="8">
+        <v>50</v>
+      </c>
+      <c r="F72" s="8"/>
+      <c r="G72" s="9">
+        <v>0.65</v>
+      </c>
+      <c r="H72" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C73" s="8">
+        <v>80</v>
+      </c>
+      <c r="D73" s="8">
+        <v>70</v>
+      </c>
+      <c r="E73" s="8">
+        <v>80</v>
+      </c>
+      <c r="F73" s="8"/>
+      <c r="G73" s="9">
+        <v>1</v>
+      </c>
+      <c r="H73" s="9">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C74" s="8">
+        <v>70</v>
+      </c>
+      <c r="D74" s="8">
+        <v>70</v>
+      </c>
+      <c r="E74" s="8">
+        <v>70</v>
+      </c>
+      <c r="F74" s="8"/>
+      <c r="G74" s="9">
+        <v>1</v>
+      </c>
+      <c r="H74" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75" s="8">
+        <v>67.8</v>
+      </c>
+      <c r="D75" s="8">
+        <v>66.7</v>
+      </c>
+      <c r="E75" s="8">
+        <v>67.8</v>
+      </c>
+      <c r="F75" s="8"/>
+      <c r="G75" s="9">
+        <v>1</v>
+      </c>
+      <c r="H75" s="9">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" s="8">
+        <v>82</v>
+      </c>
+      <c r="D76" s="8">
+        <v>66.7</v>
+      </c>
+      <c r="E76" s="8">
+        <v>82</v>
+      </c>
+      <c r="F76" s="8"/>
+      <c r="G76" s="9">
+        <v>1</v>
+      </c>
+      <c r="H76" s="9">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C77" s="8">
+        <v>80</v>
+      </c>
+      <c r="D77" s="8">
+        <v>70</v>
+      </c>
+      <c r="E77" s="8">
+        <v>80</v>
+      </c>
+      <c r="F77" s="8"/>
+      <c r="G77" s="9">
+        <v>1</v>
+      </c>
+      <c r="H77" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C78" s="8">
+        <v>60</v>
+      </c>
+      <c r="D78" s="8">
+        <v>70</v>
+      </c>
+      <c r="E78" s="8">
+        <v>80</v>
+      </c>
+      <c r="F78" s="8"/>
+      <c r="G78" s="9">
+        <v>1</v>
+      </c>
+      <c r="H78" s="9">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79" s="8">
+        <v>81</v>
+      </c>
+      <c r="D79" s="8">
+        <v>70</v>
+      </c>
+      <c r="E79" s="8">
+        <v>81</v>
+      </c>
+      <c r="F79" s="8"/>
+      <c r="G79" s="9">
+        <v>1</v>
+      </c>
+      <c r="H79" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C80" s="8">
+        <v>78</v>
+      </c>
+      <c r="D80" s="8">
+        <v>0</v>
+      </c>
+      <c r="E80" s="8">
+        <v>75</v>
+      </c>
+      <c r="F80" s="8"/>
+      <c r="G80" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H80" s="9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C81" s="8">
+        <v>89</v>
+      </c>
+      <c r="D81" s="8">
+        <v>66.7</v>
+      </c>
+      <c r="E81" s="8">
+        <v>89</v>
+      </c>
+      <c r="F81" s="8"/>
+      <c r="G81" s="9">
+        <v>1</v>
+      </c>
+      <c r="H81" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82" s="8">
+        <v>80</v>
+      </c>
+      <c r="D82" s="8">
+        <v>70</v>
+      </c>
+      <c r="E82" s="8">
+        <v>80</v>
+      </c>
+      <c r="F82" s="8"/>
+      <c r="G82" s="9">
+        <v>1</v>
+      </c>
+      <c r="H82" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C83" s="8">
+        <v>93</v>
+      </c>
+      <c r="D83" s="8">
+        <v>0</v>
+      </c>
+      <c r="E83" s="8">
+        <v>93</v>
+      </c>
+      <c r="F83" s="8"/>
+      <c r="G83" s="9">
+        <v>1</v>
+      </c>
+      <c r="H83" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C84" s="8">
+        <v>88</v>
+      </c>
+      <c r="D84" s="8">
+        <v>70</v>
+      </c>
+      <c r="E84" s="8">
+        <v>88</v>
+      </c>
+      <c r="F84" s="8"/>
+      <c r="G84" s="9">
+        <v>1</v>
+      </c>
+      <c r="H84" s="9">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C85" s="8">
+        <v>63.9</v>
+      </c>
+      <c r="D85" s="8">
+        <v>66.7</v>
+      </c>
+      <c r="E85" s="8">
+        <v>69</v>
+      </c>
+      <c r="F85" s="8"/>
+      <c r="G85" s="9">
+        <v>1</v>
+      </c>
+      <c r="H85" s="9">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C86" s="8">
+        <v>90</v>
+      </c>
+      <c r="D86" s="8">
+        <v>70</v>
+      </c>
+      <c r="E86" s="8">
+        <v>100</v>
+      </c>
+      <c r="F86" s="8"/>
+      <c r="G86" s="9">
+        <v>1</v>
+      </c>
+      <c r="H86" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C87" s="8">
+        <v>72</v>
+      </c>
+      <c r="D87" s="8">
+        <v>70</v>
+      </c>
+      <c r="E87" s="8">
+        <v>74</v>
+      </c>
+      <c r="F87" s="8"/>
+      <c r="G87" s="9">
+        <v>1</v>
+      </c>
+      <c r="H87" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C88" s="8">
+        <v>89</v>
+      </c>
+      <c r="D88" s="8">
+        <v>70</v>
+      </c>
+      <c r="E88" s="8">
+        <v>89</v>
+      </c>
+      <c r="F88" s="8"/>
+      <c r="G88" s="9">
+        <v>1</v>
+      </c>
+      <c r="H88" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C89" s="8">
+        <v>79</v>
+      </c>
+      <c r="D89" s="8">
+        <v>70</v>
+      </c>
+      <c r="E89" s="8">
+        <v>100</v>
+      </c>
+      <c r="F89" s="8"/>
+      <c r="G89" s="9">
+        <v>1</v>
+      </c>
+      <c r="H89" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C90" s="8">
+        <v>85</v>
+      </c>
+      <c r="D90" s="8">
+        <v>70</v>
+      </c>
+      <c r="E90" s="8">
+        <v>85</v>
+      </c>
+      <c r="F90" s="8"/>
+      <c r="G90" s="9">
+        <v>1</v>
+      </c>
+      <c r="H90" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C91" s="8">
+        <v>80</v>
+      </c>
+      <c r="D91" s="8">
+        <v>70</v>
+      </c>
+      <c r="E91" s="8">
+        <v>80</v>
+      </c>
+      <c r="F91" s="8"/>
+      <c r="G91" s="9">
+        <v>1</v>
+      </c>
+      <c r="H91" s="9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C92" s="8">
+        <v>76</v>
+      </c>
+      <c r="D92" s="8">
+        <v>70</v>
+      </c>
+      <c r="E92" s="8">
+        <v>76</v>
+      </c>
+      <c r="F92" s="8"/>
+      <c r="G92" s="9">
+        <v>1</v>
+      </c>
+      <c r="H92" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C93" s="8">
+        <v>85</v>
+      </c>
+      <c r="D93" s="8">
+        <v>66.7</v>
+      </c>
+      <c r="E93" s="8">
+        <v>85</v>
+      </c>
+      <c r="F93" s="8"/>
+      <c r="G93" s="9">
+        <v>1</v>
+      </c>
+      <c r="H93" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C94" s="8">
+        <v>76</v>
+      </c>
+      <c r="D94" s="8">
+        <v>66.7</v>
+      </c>
+      <c r="E94" s="8">
+        <v>76</v>
+      </c>
+      <c r="F94" s="8"/>
+      <c r="G94" s="9">
+        <v>1</v>
+      </c>
+      <c r="H94" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C95" s="8">
+        <v>75</v>
+      </c>
+      <c r="D95" s="8">
+        <v>70</v>
+      </c>
+      <c r="E95" s="8">
+        <v>75</v>
+      </c>
+      <c r="F95" s="8"/>
+      <c r="G95" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="H95" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C96" s="8">
+        <v>72</v>
+      </c>
+      <c r="D96" s="8">
+        <v>70</v>
+      </c>
+      <c r="E96" s="8">
+        <v>72</v>
+      </c>
+      <c r="F96" s="8"/>
+      <c r="G96" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="H96" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C97" s="8">
+        <v>67</v>
+      </c>
+      <c r="D97" s="8">
+        <v>70</v>
+      </c>
+      <c r="E97" s="8">
+        <v>67</v>
+      </c>
+      <c r="F97" s="8"/>
+      <c r="G97" s="9">
+        <v>1</v>
+      </c>
+      <c r="H97" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C98" s="8">
+        <v>32</v>
+      </c>
+      <c r="D98" s="8">
+        <v>70</v>
+      </c>
+      <c r="E98" s="8">
+        <v>32</v>
+      </c>
+      <c r="F98" s="8"/>
+      <c r="G98" s="9">
+        <v>1</v>
+      </c>
+      <c r="H98" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C99" s="8">
+        <v>80</v>
+      </c>
+      <c r="D99" s="8">
+        <v>66.7</v>
+      </c>
+      <c r="E99" s="8">
+        <v>80</v>
+      </c>
+      <c r="F99" s="8"/>
+      <c r="G99" s="9">
+        <v>1</v>
+      </c>
+      <c r="H99" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C100" s="8">
+        <v>84</v>
+      </c>
+      <c r="D100" s="8">
+        <v>65</v>
+      </c>
+      <c r="E100" s="8">
+        <v>84</v>
+      </c>
+      <c r="F100" s="8"/>
+      <c r="G100" s="9">
+        <v>1</v>
+      </c>
+      <c r="H100" s="9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C101" s="8">
+        <v>60</v>
+      </c>
+      <c r="D101" s="8">
+        <v>50</v>
+      </c>
+      <c r="E101" s="8">
+        <v>60</v>
+      </c>
+      <c r="F101" s="8"/>
+      <c r="G101" s="9">
+        <v>1</v>
+      </c>
+      <c r="H101" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C102" s="8">
+        <v>52.3</v>
+      </c>
+      <c r="D102" s="8">
+        <v>66.7</v>
+      </c>
+      <c r="E102" s="8">
+        <v>52.3</v>
+      </c>
+      <c r="F102" s="8"/>
+      <c r="G102" s="9">
+        <v>1</v>
+      </c>
+      <c r="H102" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C103" s="8">
+        <v>88</v>
+      </c>
+      <c r="D103" s="8">
+        <v>70</v>
+      </c>
+      <c r="E103" s="8">
+        <v>92.6</v>
+      </c>
+      <c r="F103" s="8"/>
+      <c r="G103" s="9">
+        <v>1</v>
+      </c>
+      <c r="H103" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C104" s="8">
+        <v>58</v>
+      </c>
+      <c r="D104" s="8">
+        <v>66.7</v>
+      </c>
+      <c r="E104" s="8">
+        <v>58</v>
+      </c>
+      <c r="F104" s="8"/>
+      <c r="G104" s="9">
+        <v>1</v>
+      </c>
+      <c r="H104" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C105" s="8">
+        <v>62</v>
+      </c>
+      <c r="D105" s="8">
+        <v>66.7</v>
+      </c>
+      <c r="E105" s="8">
+        <v>62</v>
+      </c>
+      <c r="F105" s="8"/>
+      <c r="G105" s="9">
+        <v>1</v>
+      </c>
+      <c r="H105" s="9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C106" s="8">
+        <v>72.5</v>
+      </c>
+      <c r="D106" s="8">
+        <v>53.4</v>
+      </c>
+      <c r="E106" s="8">
+        <v>72.5</v>
+      </c>
+      <c r="F106" s="8"/>
+      <c r="G106" s="9">
+        <v>1</v>
+      </c>
+      <c r="H106" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C107" s="8">
+        <v>79.5</v>
+      </c>
+      <c r="D107" s="8">
+        <v>66.7</v>
+      </c>
+      <c r="E107" s="8">
+        <v>79.5</v>
+      </c>
+      <c r="F107" s="8"/>
+      <c r="G107" s="9">
+        <v>1</v>
+      </c>
+      <c r="H107" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C108" s="8">
+        <v>60</v>
+      </c>
+      <c r="D108" s="8">
+        <v>70</v>
+      </c>
+      <c r="E108" s="8">
+        <v>60</v>
+      </c>
+      <c r="F108" s="8"/>
+      <c r="G108" s="9">
+        <v>1</v>
+      </c>
+      <c r="H108" s="9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C109" s="8">
+        <v>79</v>
+      </c>
+      <c r="D109" s="8">
+        <v>66.7</v>
+      </c>
+      <c r="E109" s="8">
+        <v>79</v>
+      </c>
+      <c r="F109" s="8"/>
+      <c r="G109" s="9">
+        <v>1</v>
+      </c>
+      <c r="H109" s="9">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C110" s="8">
+        <v>92</v>
+      </c>
+      <c r="D110" s="8">
+        <v>66.7</v>
+      </c>
+      <c r="E110" s="8">
+        <v>92</v>
+      </c>
+      <c r="F110" s="8"/>
+      <c r="G110" s="9">
+        <v>1</v>
+      </c>
+      <c r="H110" s="9">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C111" s="8">
+        <v>82</v>
+      </c>
+      <c r="D111" s="8">
+        <v>66.7</v>
+      </c>
+      <c r="E111" s="8">
+        <v>82</v>
+      </c>
+      <c r="F111" s="8"/>
+      <c r="G111" s="9">
+        <v>1</v>
+      </c>
+      <c r="H111" s="9">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C112" s="8">
+        <v>85.9</v>
+      </c>
+      <c r="D112" s="8">
+        <v>66.7</v>
+      </c>
+      <c r="E112" s="8">
+        <v>85.9</v>
+      </c>
+      <c r="F112" s="8"/>
+      <c r="G112" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="H112" s="9">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C113" s="8">
+        <v>76</v>
+      </c>
+      <c r="D113" s="8">
+        <v>70</v>
+      </c>
+      <c r="E113" s="8">
+        <v>76</v>
+      </c>
+      <c r="F113" s="8"/>
+      <c r="G113" s="9">
+        <v>1</v>
+      </c>
+      <c r="H113" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C114" s="8">
+        <v>81</v>
+      </c>
+      <c r="D114" s="8">
+        <v>70</v>
+      </c>
+      <c r="E114" s="8">
+        <v>81</v>
+      </c>
+      <c r="F114" s="8"/>
+      <c r="G114" s="9">
+        <v>1</v>
+      </c>
+      <c r="H114" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C115" s="8">
+        <v>95</v>
+      </c>
+      <c r="D115" s="8">
+        <v>70</v>
+      </c>
+      <c r="E115" s="8">
+        <v>90</v>
+      </c>
+      <c r="F115" s="8"/>
+      <c r="G115" s="9">
+        <v>1</v>
+      </c>
+      <c r="H115" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C116" s="8">
+        <v>95</v>
+      </c>
+      <c r="D116" s="8">
+        <v>70</v>
+      </c>
+      <c r="E116" s="8">
+        <v>95</v>
+      </c>
+      <c r="F116" s="8"/>
+      <c r="G116" s="9">
+        <v>1</v>
+      </c>
+      <c r="H116" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C117" s="8">
+        <v>90</v>
+      </c>
+      <c r="D117" s="8">
+        <v>66.7</v>
+      </c>
+      <c r="E117" s="8">
+        <v>90</v>
+      </c>
+      <c r="F117" s="8"/>
+      <c r="G117" s="9">
+        <v>1</v>
+      </c>
+      <c r="H117" s="9">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C118" s="8">
+        <v>87</v>
+      </c>
+      <c r="D118" s="8">
+        <v>66.7</v>
+      </c>
+      <c r="E118" s="8">
+        <v>87</v>
+      </c>
+      <c r="F118" s="8"/>
+      <c r="G118" s="9">
+        <v>1</v>
+      </c>
+      <c r="H118" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C119" s="8">
+        <v>95</v>
+      </c>
+      <c r="D119" s="8">
+        <v>70</v>
+      </c>
+      <c r="E119" s="8">
+        <v>95</v>
+      </c>
+      <c r="F119" s="8"/>
+      <c r="G119" s="9">
+        <v>1</v>
+      </c>
+      <c r="H119" s="9">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C120" s="8">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="D120" s="8">
+        <v>66.7</v>
+      </c>
+      <c r="E120" s="8">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="F120" s="8"/>
+      <c r="G120" s="9">
+        <v>1</v>
+      </c>
+      <c r="H120" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C121" s="8">
+        <v>77</v>
+      </c>
+      <c r="D121" s="8">
+        <v>70</v>
+      </c>
+      <c r="E121" s="8">
+        <v>72</v>
+      </c>
+      <c r="F121" s="8"/>
+      <c r="G121" s="9">
+        <v>1</v>
+      </c>
+      <c r="H121" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C122" s="8">
+        <v>75</v>
+      </c>
+      <c r="D122" s="8">
+        <v>66.7</v>
+      </c>
+      <c r="E122" s="8">
+        <v>75</v>
+      </c>
+      <c r="F122" s="8"/>
+      <c r="G122" s="9">
+        <v>1</v>
+      </c>
+      <c r="H122" s="9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C123" s="8">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="D123" s="8">
+        <v>66.7</v>
+      </c>
+      <c r="E123" s="8">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="F123" s="8"/>
+      <c r="G123" s="9">
+        <v>1</v>
+      </c>
+      <c r="H123" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C124" s="8">
+        <v>89</v>
+      </c>
+      <c r="D124" s="8">
+        <v>66.7</v>
+      </c>
+      <c r="E124" s="8">
+        <v>89</v>
+      </c>
+      <c r="F124" s="8"/>
+      <c r="G124" s="9">
+        <v>1</v>
+      </c>
+      <c r="H124" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C125" s="8">
+        <v>82</v>
+      </c>
+      <c r="D125" s="8">
+        <v>66.7</v>
+      </c>
+      <c r="E125" s="8">
+        <v>85.7</v>
+      </c>
+      <c r="F125" s="8"/>
+      <c r="G125" s="9">
+        <v>1</v>
+      </c>
+      <c r="H125" s="9">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C126" s="8">
+        <v>78.5</v>
+      </c>
+      <c r="D126" s="8">
+        <v>66.7</v>
+      </c>
+      <c r="E126" s="8">
+        <v>78.5</v>
+      </c>
+      <c r="F126" s="8"/>
+      <c r="G126" s="9">
+        <v>1</v>
+      </c>
+      <c r="H126" s="9">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C127" s="8">
+        <v>93</v>
+      </c>
+      <c r="D127" s="8">
+        <v>70</v>
+      </c>
+      <c r="E127" s="8">
+        <v>93</v>
+      </c>
+      <c r="F127" s="8"/>
+      <c r="G127" s="9">
+        <v>1</v>
+      </c>
+      <c r="H127" s="9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C128" s="8">
+        <v>83.6</v>
+      </c>
+      <c r="D128" s="8">
+        <v>66.7</v>
+      </c>
+      <c r="E128" s="8">
+        <v>83.6</v>
+      </c>
+      <c r="F128" s="8"/>
+      <c r="G128" s="9">
+        <v>1</v>
+      </c>
+      <c r="H128" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C129" s="8">
+        <v>89</v>
+      </c>
+      <c r="D129" s="8">
+        <v>70</v>
+      </c>
+      <c r="E129" s="8">
+        <v>81</v>
+      </c>
+      <c r="F129" s="8"/>
+      <c r="G129" s="9">
+        <v>1</v>
+      </c>
+      <c r="H129" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C130" s="8">
+        <v>88</v>
+      </c>
+      <c r="D130" s="8">
+        <v>66.7</v>
+      </c>
+      <c r="E130" s="8">
+        <v>88</v>
+      </c>
+      <c r="F130" s="8"/>
+      <c r="G130" s="9">
+        <v>1</v>
+      </c>
+      <c r="H130" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C131" s="8">
+        <v>87</v>
+      </c>
+      <c r="D131" s="8">
+        <v>70</v>
+      </c>
+      <c r="E131" s="8">
+        <v>90</v>
+      </c>
+      <c r="F131" s="8"/>
+      <c r="G131" s="9">
+        <v>1</v>
+      </c>
+      <c r="H131" s="9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C132" s="8">
+        <v>83</v>
+      </c>
+      <c r="D132" s="8">
+        <v>66.7</v>
+      </c>
+      <c r="E132" s="8">
+        <v>83</v>
+      </c>
+      <c r="F132" s="8"/>
+      <c r="G132" s="9">
+        <v>1</v>
+      </c>
+      <c r="H132" s="9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C133" s="8">
+        <v>93.8</v>
+      </c>
+      <c r="D133" s="8">
+        <v>66.7</v>
+      </c>
+      <c r="E133" s="8">
+        <v>93.8</v>
+      </c>
+      <c r="F133" s="8"/>
+      <c r="G133" s="9">
+        <v>1</v>
+      </c>
+      <c r="H133" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C134" s="8">
+        <v>86</v>
+      </c>
+      <c r="D134" s="8">
+        <v>60</v>
+      </c>
+      <c r="E134" s="8">
+        <v>86</v>
+      </c>
+      <c r="F134" s="8"/>
+      <c r="G134" s="9">
+        <v>1</v>
+      </c>
+      <c r="H134" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="37"/>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="9"/>
+      <c r="H135" s="9"/>
+    </row>
+    <row r="136" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="37"/>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9"/>
+    </row>
+    <row r="137" spans="1:8" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="37"/>
+      <c r="C137" s="21"/>
+      <c r="D137" s="21"/>
+      <c r="E137" s="21"/>
+      <c r="F137" s="21"/>
+      <c r="G137" s="24"/>
+      <c r="H137" s="24"/>
+    </row>
+    <row r="138" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="9"/>
+    </row>
+    <row r="139" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="9"/>
+      <c r="H139" s="9"/>
+    </row>
+    <row r="140" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="9"/>
+    </row>
+    <row r="141" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="9"/>
+    </row>
+    <row r="142" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C142" s="8"/>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9"/>
+    </row>
+    <row r="143" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="9"/>
+    </row>
+    <row r="144" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="9"/>
+    </row>
+    <row r="145" spans="3:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="9"/>
+      <c r="H145" s="9"/>
+    </row>
+    <row r="146" spans="3:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C146" s="8"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="9"/>
+      <c r="H146" s="9"/>
+    </row>
+    <row r="147" spans="3:8" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C147" s="22"/>
+      <c r="D147" s="22"/>
+      <c r="E147" s="22"/>
+      <c r="F147" s="22"/>
+      <c r="G147" s="22"/>
+      <c r="H147" s="22"/>
+    </row>
+    <row r="148" spans="3:8" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C148" s="22"/>
+      <c r="D148" s="22"/>
+      <c r="E148" s="22"/>
+      <c r="F148" s="22"/>
+      <c r="G148" s="22"/>
+      <c r="H148" s="22"/>
+    </row>
+    <row r="149" spans="3:8" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C149" s="22"/>
+      <c r="D149" s="22"/>
+      <c r="E149" s="22"/>
+      <c r="F149" s="22"/>
+      <c r="G149" s="22"/>
+      <c r="H149" s="22"/>
+    </row>
+    <row r="150" spans="3:8" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="151" spans="3:8" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="152" spans="3:8" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="153" spans="3:8" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="154" spans="3:8" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="155" spans="3:8" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="156" spans="3:8" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="157" spans="3:8" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="159" spans="3:8" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="12" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>